--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -24,6 +24,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>one factor</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>only 1 and 0 values</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +365,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1934</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">total </t>
   </si>
@@ -50,7 +50,16 @@
     <t>string</t>
   </si>
   <si>
-    <t>only 1 and 0 values</t>
+    <t>Only 1 value and NA</t>
+  </si>
+  <si>
+    <t>only 2 distinct values</t>
+  </si>
+  <si>
+    <t>TOTAL BOOLEAN</t>
+  </si>
+  <si>
+    <t>numerical</t>
   </si>
 </sst>
 </file>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,10 +440,35 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>A5+A8+A9</f>
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1824</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
